--- a/test_case2.xlsx
+++ b/test_case2.xlsx
@@ -36,304 +36,304 @@
     <t>Out=0;</t>
   </si>
   <si>
-    <t>Out=0.5;</t>
-  </si>
-  <si>
-    <t>Out=1;</t>
-  </si>
-  <si>
     <t>Out=1.5;</t>
   </si>
   <si>
-    <t>Out=2;</t>
-  </si>
-  <si>
-    <t>Out=2.5;</t>
-  </si>
-  <si>
     <t>Out=3;</t>
   </si>
   <si>
-    <t>Out=3.5;</t>
-  </si>
-  <si>
-    <t>Out=4;</t>
-  </si>
-  <si>
     <t>Out=4.5;</t>
   </si>
   <si>
-    <t>Out=5;</t>
-  </si>
-  <si>
-    <t>Out=5.5;</t>
-  </si>
-  <si>
     <t>Out=6;</t>
   </si>
   <si>
-    <t>Out=6.5;</t>
-  </si>
-  <si>
-    <t>Out=7;</t>
-  </si>
-  <si>
     <t>Out=7.5;</t>
   </si>
   <si>
-    <t>Out=8;</t>
-  </si>
-  <si>
-    <t>Out=8.5;</t>
-  </si>
-  <si>
-    <t>Out=8.895;</t>
-  </si>
-  <si>
-    <t>Out=9.20625;</t>
-  </si>
-  <si>
-    <t>Out=9.4507375;</t>
-  </si>
-  <si>
-    <t>Out=9.642040625;</t>
-  </si>
-  <si>
-    <t>Out=9.79101059375;</t>
-  </si>
-  <si>
-    <t>Out=9.9063176640625;</t>
-  </si>
-  <si>
-    <t>Out=9.99488786085938;</t>
-  </si>
-  <si>
-    <t>Out=10.0622523318164;</t>
-  </si>
-  <si>
-    <t>Out=10.1128268064256;</t>
-  </si>
-  <si>
-    <t>Out=10.1501351390643;</t>
-  </si>
-  <si>
-    <t>Out=10.1769881204791;</t>
-  </si>
-  <si>
-    <t>Out=10.1956265051495;</t>
-  </si>
-  <si>
-    <t>Out=10.2078354124476;</t>
-  </si>
-  <si>
-    <t>Out=10.2150358278696;</t>
-  </si>
-  <si>
-    <t>Out=10.2183577853117;</t>
-  </si>
-  <si>
-    <t>Out=10.2186988951145;</t>
-  </si>
-  <si>
-    <t>Out=10.2167711496135;</t>
-  </si>
-  <si>
-    <t>Out=10.2131383515366;</t>
-  </si>
-  <si>
-    <t>Out=10.2082460414828;</t>
-  </si>
-  <si>
-    <t>Out=10.2024454254271;</t>
-  </si>
-  <si>
-    <t>Out=10.1960125029705;</t>
-  </si>
-  <si>
-    <t>Out=10.1891633568738;</t>
-  </si>
-  <si>
-    <t>Out=10.1820663722715;</t>
-  </si>
-  <si>
-    <t>Out=10.1748520002511;</t>
-  </si>
-  <si>
-    <t>Out=10.1676205575131;</t>
-  </si>
-  <si>
-    <t>Out=10.160448455457;</t>
-  </si>
-  <si>
-    <t>Out=10.1533931733399;</t>
-  </si>
-  <si>
-    <t>Out=10.1464972271974;</t>
-  </si>
-  <si>
-    <t>Out=10.1397913358572;</t>
-  </si>
-  <si>
-    <t>Out=10.1332969450801;</t>
-  </si>
-  <si>
-    <t>Out=10.1270282386386;</t>
-  </si>
-  <si>
-    <t>Out=10.1209937393567;</t>
-  </si>
-  <si>
-    <t>Out=10.115197582509;</t>
-  </si>
-  <si>
-    <t>Out=10.1096405274795;</t>
-  </si>
-  <si>
-    <t>Out=10.1043207603824;</t>
-  </si>
-  <si>
-    <t>Out=10.0992345297847;</t>
-  </si>
-  <si>
-    <t>Out=10.0943766492327;</t>
-  </si>
-  <si>
-    <t>Out=10.0897408935208;</t>
-  </si>
-  <si>
-    <t>Out=10.0853203102445;</t>
-  </si>
-  <si>
-    <t>Out=10.0811074638521;</t>
-  </si>
-  <si>
-    <t>Out=10.0770946259554;</t>
-  </si>
-  <si>
-    <t>Out=10.0732739228943;</t>
-  </si>
-  <si>
-    <t>Out=10.0696374493389;</t>
-  </si>
-  <si>
-    <t>Out=10.0661773549435;</t>
-  </si>
-  <si>
-    <t>Out=10.0628859096535;</t>
-  </si>
-  <si>
-    <t>Out=10.0597555521366;</t>
-  </si>
-  <si>
-    <t>Out=10.0567789249023;</t>
-  </si>
-  <si>
-    <t>Out=10.0539488989553;</t>
-  </si>
-  <si>
-    <t>Out=10.051258590246;</t>
-  </si>
-  <si>
-    <t>Out=10.0487013697245;</t>
-  </si>
-  <si>
-    <t>Out=10.0462708684309;</t>
-  </si>
-  <si>
-    <t>Out=10.0439609787634;</t>
-  </si>
-  <si>
-    <t>Out=10.0417658528285;</t>
-  </si>
-  <si>
-    <t>Out=10.0396798985897;</t>
-  </si>
-  <si>
-    <t>Out=10.0376977743823;</t>
-  </si>
-  <si>
-    <t>Out=10.0358143822409;</t>
-  </si>
-  <si>
-    <t>Out=10.034024860391;</t>
-  </si>
-  <si>
-    <t>Out=10.0323245751811;</t>
-  </si>
-  <si>
-    <t>Out=10.0307091126699;</t>
-  </si>
-  <si>
-    <t>Out=10.0291742700346;</t>
-  </si>
-  <si>
-    <t>Out=10.0277160469314;</t>
-  </si>
-  <si>
-    <t>Out=10.0263306369037;</t>
-  </si>
-  <si>
-    <t>Out=10.0250144189136;</t>
-  </si>
-  <si>
-    <t>Out=10.023763949052;</t>
-  </si>
-  <si>
-    <t>Out=10.0225759524667;</t>
-  </si>
-  <si>
-    <t>Out=10.0214473155371;</t>
-  </si>
-  <si>
-    <t>Out=10.0203750783153;</t>
-  </si>
-  <si>
-    <t>Out=10.0193564272436;</t>
-  </si>
-  <si>
-    <t>Out=10.0183886881566;</t>
-  </si>
-  <si>
-    <t>Out=10.017469319569;</t>
-  </si>
-  <si>
-    <t>Out=10.0165959062467;</t>
-  </si>
-  <si>
-    <t>Out=10.0157661530593;</t>
-  </si>
-  <si>
-    <t>Out=10.0149778791062;</t>
-  </si>
-  <si>
-    <t>Out=10.0142290121109;</t>
-  </si>
-  <si>
-    <t>Out=10.0135175830733;</t>
-  </si>
-  <si>
-    <t>Out=10.012841721174;</t>
-  </si>
-  <si>
-    <t>Out=10.0121996489188;</t>
-  </si>
-  <si>
-    <t>Out=10.0115896775156;</t>
-  </si>
-  <si>
-    <t>Out=10.0110102024741;</t>
-  </si>
-  <si>
-    <t>Out=10.0104596994178;</t>
-  </si>
-  <si>
-    <t>Out=10.0099367201008;</t>
-  </si>
-  <si>
-    <t>Out=10.0094398886189;</t>
-  </si>
-  <si>
-    <t>Out=10.0089678978064;</t>
+    <t>Out=0.3;</t>
+  </si>
+  <si>
+    <t>Out=0.6;</t>
+  </si>
+  <si>
+    <t>Out=0.9;</t>
+  </si>
+  <si>
+    <t>Out=1.2;</t>
+  </si>
+  <si>
+    <t>Out=1.8;</t>
+  </si>
+  <si>
+    <t>Out=2.1;</t>
+  </si>
+  <si>
+    <t>Out=2.4;</t>
+  </si>
+  <si>
+    <t>Out=2.7;</t>
+  </si>
+  <si>
+    <t>Out=3.3;</t>
+  </si>
+  <si>
+    <t>Out=3.6;</t>
+  </si>
+  <si>
+    <t>Out=3.9;</t>
+  </si>
+  <si>
+    <t>Out=4.2;</t>
+  </si>
+  <si>
+    <t>Out=4.8;</t>
+  </si>
+  <si>
+    <t>Out=5.1;</t>
+  </si>
+  <si>
+    <t>Out=5.4;</t>
+  </si>
+  <si>
+    <t>Out=5.7;</t>
+  </si>
+  <si>
+    <t>Out=6.3;</t>
+  </si>
+  <si>
+    <t>Out=6.6;</t>
+  </si>
+  <si>
+    <t>Out=6.9;</t>
+  </si>
+  <si>
+    <t>Out=7.2;</t>
+  </si>
+  <si>
+    <t>Out=7.8;</t>
+  </si>
+  <si>
+    <t>Out=8.1;</t>
+  </si>
+  <si>
+    <t>Out=8.4;</t>
+  </si>
+  <si>
+    <t>Out=8.7;</t>
+  </si>
+  <si>
+    <t>Out=9;</t>
+  </si>
+  <si>
+    <t>Out=9.25;</t>
+  </si>
+  <si>
+    <t>Out=9.4475;</t>
+  </si>
+  <si>
+    <t>Out=9.603125;</t>
+  </si>
+  <si>
+    <t>Out=9.72536875;</t>
+  </si>
+  <si>
+    <t>Out=9.8210203125;</t>
+  </si>
+  <si>
+    <t>Out=9.895505296875;</t>
+  </si>
+  <si>
+    <t>Out=9.95315883203125;</t>
+  </si>
+  <si>
+    <t>Out=9.99744393042969;</t>
+  </si>
+  <si>
+    <t>Out=10.0311261659082;</t>
+  </si>
+  <si>
+    <t>Out=10.0564134032128;</t>
+  </si>
+  <si>
+    <t>Out=10.0750675695322;</t>
+  </si>
+  <si>
+    <t>Out=10.0884940602395;</t>
+  </si>
+  <si>
+    <t>Out=10.0978132525748;</t>
+  </si>
+  <si>
+    <t>Out=10.1039177062238;</t>
+  </si>
+  <si>
+    <t>Out=10.1075179139348;</t>
+  </si>
+  <si>
+    <t>Out=10.1091788926558;</t>
+  </si>
+  <si>
+    <t>Out=10.1093494475573;</t>
+  </si>
+  <si>
+    <t>Out=10.1083855748068;</t>
+  </si>
+  <si>
+    <t>Out=10.1065691757683;</t>
+  </si>
+  <si>
+    <t>Out=10.1041230207414;</t>
+  </si>
+  <si>
+    <t>Out=10.1012227127136;</t>
+  </si>
+  <si>
+    <t>Out=10.0980062514853;</t>
+  </si>
+  <si>
+    <t>Out=10.0945816784369;</t>
+  </si>
+  <si>
+    <t>Out=10.0910331861358;</t>
+  </si>
+  <si>
+    <t>Out=10.0874260001256;</t>
+  </si>
+  <si>
+    <t>Out=10.0838102787565;</t>
+  </si>
+  <si>
+    <t>Out=10.0802242277285;</t>
+  </si>
+  <si>
+    <t>Out=10.0766965866699;</t>
+  </si>
+  <si>
+    <t>Out=10.0732486135987;</t>
+  </si>
+  <si>
+    <t>Out=10.0698956679286;</t>
+  </si>
+  <si>
+    <t>Out=10.06664847254;</t>
+  </si>
+  <si>
+    <t>Out=10.0635141193193;</t>
+  </si>
+  <si>
+    <t>Out=10.0604968696784;</t>
+  </si>
+  <si>
+    <t>Out=10.0575987912545;</t>
+  </si>
+  <si>
+    <t>Out=10.0548202637398;</t>
+  </si>
+  <si>
+    <t>Out=10.0521603801912;</t>
+  </si>
+  <si>
+    <t>Out=10.0496172648924;</t>
+  </si>
+  <si>
+    <t>Out=10.0471883246163;</t>
+  </si>
+  <si>
+    <t>Out=10.0448704467604;</t>
+  </si>
+  <si>
+    <t>Out=10.0426601551223;</t>
+  </si>
+  <si>
+    <t>Out=10.0405537319261;</t>
+  </si>
+  <si>
+    <t>Out=10.0385473129777;</t>
+  </si>
+  <si>
+    <t>Out=10.0366369614472;</t>
+  </si>
+  <si>
+    <t>Out=10.0348187246695;</t>
+  </si>
+  <si>
+    <t>Out=10.0330886774717;</t>
+  </si>
+  <si>
+    <t>Out=10.0314429548268;</t>
+  </si>
+  <si>
+    <t>Out=10.0298777760683;</t>
+  </si>
+  <si>
+    <t>Out=10.0283894624512;</t>
+  </si>
+  <si>
+    <t>Out=10.0269744494777;</t>
+  </si>
+  <si>
+    <t>Out=10.025629295123;</t>
+  </si>
+  <si>
+    <t>Out=10.0243506848622;</t>
+  </si>
+  <si>
+    <t>Out=10.0231354342154;</t>
+  </si>
+  <si>
+    <t>Out=10.0219804893817;</t>
+  </si>
+  <si>
+    <t>Out=10.0208829264143;</t>
+  </si>
+  <si>
+    <t>Out=10.0198399492949;</t>
+  </si>
+  <si>
+    <t>Out=10.0188488871912;</t>
+  </si>
+  <si>
+    <t>Out=10.0179071911204;</t>
+  </si>
+  <si>
+    <t>Out=10.0170124301955;</t>
+  </si>
+  <si>
+    <t>Out=10.0161622875906;</t>
+  </si>
+  <si>
+    <t>Out=10.0153545563349;</t>
+  </si>
+  <si>
+    <t>Out=10.0145871350173;</t>
+  </si>
+  <si>
+    <t>Out=10.0138580234657;</t>
+  </si>
+  <si>
+    <t>Out=10.0131653184519;</t>
+  </si>
+  <si>
+    <t>Out=10.0125072094568;</t>
+  </si>
+  <si>
+    <t>Out=10.011881974526;</t>
+  </si>
+  <si>
+    <t>Out=10.0112879762333;</t>
+  </si>
+  <si>
+    <t>Out=10.0107236577686;</t>
+  </si>
+  <si>
+    <t>Out=10.0101875391577;</t>
+  </si>
+  <si>
+    <t>Out=10.0096782136218;</t>
+  </si>
+  <si>
+    <t>Out=10.0091943440783;</t>
   </si>
 </sst>
 </file>
@@ -680,15 +680,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D102"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -713,507 +713,507 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>30</v>
-      </c>
-    </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
+      <c r="C45" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
+      <c r="C51" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
+      <c r="C52" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
+      <c r="C53" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
+      <c r="C54" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
+      <c r="C55" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
+      <c r="C56" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
+      <c r="C57" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
+      <c r="C58" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
+      <c r="C59" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
+      <c r="C60" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
+      <c r="C61" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C62" t="s">
+      <c r="C62" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
+      <c r="C63" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
+      <c r="C64" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
+      <c r="C65" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
+      <c r="C66" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
+      <c r="C67" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
+      <c r="C68" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C69" t="s">
+      <c r="C69" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
+      <c r="C70" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
+      <c r="C71" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
+      <c r="C72" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
+      <c r="C73" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C74" t="s">
+      <c r="C74" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C75" t="s">
+      <c r="C75" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C76" t="s">
+      <c r="C76" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C77" t="s">
+      <c r="C77" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C78" t="s">
+      <c r="C78" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C79" t="s">
+      <c r="C79" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C80" t="s">
+      <c r="C80" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C81" t="s">
+      <c r="C81" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C82" t="s">
+      <c r="C82" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C83" t="s">
+      <c r="C83" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C84" t="s">
+      <c r="C84" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C85" t="s">
+      <c r="C85" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C86" t="s">
+      <c r="C86" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C87" t="s">
+      <c r="C87" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C88" t="s">
+      <c r="C88" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C89" t="s">
+      <c r="C89" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C90" t="s">
+      <c r="C90" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C91" t="s">
+      <c r="C91" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C92" t="s">
+      <c r="C92" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C93" t="s">
+      <c r="C93" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C94" t="s">
+      <c r="C94" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C95" t="s">
+      <c r="C95" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C96" t="s">
+      <c r="C96" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C97" t="s">
+      <c r="C97" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C98" t="s">
+      <c r="C98" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C99" t="s">
+      <c r="C99" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C100" t="s">
+      <c r="C100" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C101" t="s">
+      <c r="C101" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C102" t="s">
+      <c r="C102" s="2" t="s">
         <v>105</v>
       </c>
     </row>
